--- a/train_tools/answer_data_ssu.xlsx
+++ b/train_tools/answer_data_ssu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB4E6BB-1314-4A6F-A345-A8C478919C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5F20A-36E7-4770-A2E7-577019DB0A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="926">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -4368,10 +4368,6 @@
     <t>※ 안전융합대학원 장소 안내입니다 ※
 → 위치 : 문화관 404호
 → TEL : 02-828-7014</t>
-  </si>
-  <si>
-    <t>건물번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>※ 숭실대학교 건물번호 안내입니다 ※
@@ -6350,6 +6346,69 @@
 → 10/10(목) : 2024학년도 개교기념일
 → 10/23(수) : 2024학년도 2학기 수업일수 1/2선(대학원)
 → 10/31(목)~11/29(금) : 2024학년도 2학기 휴학시 수업료 1/1 차감기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도담식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물위치알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기숙사식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레지던스홀식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드코트메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.soongguri.com/</t>
+  </si>
+  <si>
+    <t>오늘 아침은 "지지고" 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식메뉴추천해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직원식당메뉴알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더키친메뉴알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6751,10 +6810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6788,7 +6847,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -6802,7 +6861,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -6816,7 +6875,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -6830,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -6844,7 +6903,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -6858,7 +6917,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -6872,7 +6931,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -6886,7 +6945,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -6900,7 +6959,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
@@ -6914,7 +6973,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -6928,7 +6987,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -6942,7 +7001,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -6956,7 +7015,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -6970,7 +7029,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -6984,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
@@ -6998,7 +7057,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -7012,7 +7071,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -7026,7 +7085,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -7040,7 +7099,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
@@ -7054,7 +7113,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -7068,7 +7127,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -7082,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
@@ -7096,7 +7155,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
@@ -7110,7 +7169,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
@@ -7124,7 +7183,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
@@ -7138,7 +7197,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
@@ -7152,7 +7211,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
@@ -7166,7 +7225,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
@@ -7438,7 +7497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="340" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -7452,7 +7511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="340" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="340" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -7480,7 +7539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="340" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -7494,7 +7553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="340" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -11335,10 +11394,10 @@
         <v>521</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>11</v>
@@ -11349,10 +11408,10 @@
         <v>521</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>11</v>
@@ -11363,10 +11422,10 @@
         <v>521</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>11</v>
@@ -11377,10 +11436,10 @@
         <v>521</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>11</v>
@@ -11391,10 +11450,10 @@
         <v>521</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>11</v>
@@ -11405,10 +11464,10 @@
         <v>521</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>11</v>
@@ -11419,24 +11478,24 @@
         <v>521</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>11</v>
@@ -11447,10 +11506,10 @@
         <v>521</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>11</v>
@@ -11461,10 +11520,10 @@
         <v>521</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>11</v>
@@ -11475,10 +11534,10 @@
         <v>521</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>11</v>
@@ -11489,10 +11548,10 @@
         <v>521</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>11</v>
@@ -11503,10 +11562,10 @@
         <v>521</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>11</v>
@@ -11517,10 +11576,10 @@
         <v>521</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>11</v>
@@ -11531,10 +11590,10 @@
         <v>521</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>11</v>
@@ -11545,10 +11604,10 @@
         <v>521</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>11</v>
@@ -11559,10 +11618,10 @@
         <v>521</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>11</v>
@@ -11573,10 +11632,10 @@
         <v>521</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>11</v>
@@ -11587,10 +11646,10 @@
         <v>521</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>11</v>
@@ -11601,10 +11660,10 @@
         <v>5</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>11</v>
@@ -11615,10 +11674,10 @@
         <v>5</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>11</v>
@@ -11629,10 +11688,10 @@
         <v>5</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>11</v>
@@ -11643,10 +11702,10 @@
         <v>5</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>11</v>
@@ -11657,10 +11716,10 @@
         <v>5</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>11</v>
@@ -11671,10 +11730,10 @@
         <v>5</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>11</v>
@@ -11685,10 +11744,10 @@
         <v>5</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>11</v>
@@ -11699,10 +11758,10 @@
         <v>5</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>11</v>
@@ -11713,10 +11772,10 @@
         <v>5</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>11</v>
@@ -11727,10 +11786,10 @@
         <v>5</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>11</v>
@@ -11741,10 +11800,10 @@
         <v>5</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>11</v>
@@ -11755,10 +11814,10 @@
         <v>5</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>11</v>
@@ -11769,10 +11828,10 @@
         <v>5</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>11</v>
@@ -11783,10 +11842,10 @@
         <v>5</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>11</v>
@@ -11797,10 +11856,10 @@
         <v>5</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>11</v>
@@ -11811,10 +11870,10 @@
         <v>5</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>11</v>
@@ -11825,10 +11884,10 @@
         <v>5</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>11</v>
@@ -11839,10 +11898,10 @@
         <v>5</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>11</v>
@@ -11853,24 +11912,24 @@
         <v>5</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A365" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>11</v>
@@ -11881,10 +11940,10 @@
         <v>5</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>11</v>
@@ -11895,10 +11954,10 @@
         <v>5</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>11</v>
@@ -11909,10 +11968,10 @@
         <v>5</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>11</v>
@@ -11923,10 +11982,10 @@
         <v>5</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>11</v>
@@ -11937,10 +11996,10 @@
         <v>5</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>11</v>
@@ -11951,10 +12010,10 @@
         <v>5</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>11</v>
@@ -11965,10 +12024,10 @@
         <v>5</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>11</v>
@@ -11979,10 +12038,10 @@
         <v>5</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>11</v>
@@ -11993,10 +12052,10 @@
         <v>5</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>11</v>
@@ -12007,10 +12066,10 @@
         <v>5</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>11</v>
@@ -12021,10 +12080,10 @@
         <v>5</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>11</v>
@@ -12035,10 +12094,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>11</v>
@@ -12049,10 +12108,10 @@
         <v>5</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>11</v>
@@ -12063,10 +12122,10 @@
         <v>5</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>11</v>
@@ -12077,10 +12136,10 @@
         <v>5</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>11</v>
@@ -12091,10 +12150,10 @@
         <v>5</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>11</v>
@@ -12105,10 +12164,10 @@
         <v>5</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>11</v>
@@ -12119,10 +12178,10 @@
         <v>5</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>11</v>
@@ -12133,10 +12192,10 @@
         <v>5</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>11</v>
@@ -12147,10 +12206,10 @@
         <v>5</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>11</v>
@@ -12161,10 +12220,10 @@
         <v>5</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>11</v>
@@ -12175,10 +12234,10 @@
         <v>5</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>11</v>
@@ -12189,10 +12248,10 @@
         <v>5</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>11</v>
@@ -12203,10 +12262,10 @@
         <v>5</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>11</v>
@@ -12217,10 +12276,10 @@
         <v>5</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>11</v>
@@ -12231,10 +12290,10 @@
         <v>5</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>11</v>
@@ -12245,10 +12304,10 @@
         <v>5</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>11</v>
@@ -12259,10 +12318,10 @@
         <v>5</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>11</v>
@@ -12273,10 +12332,10 @@
         <v>5</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>11</v>
@@ -12287,10 +12346,10 @@
         <v>5</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>11</v>
@@ -12301,10 +12360,10 @@
         <v>5</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>11</v>
@@ -12315,10 +12374,10 @@
         <v>5</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>11</v>
@@ -12329,10 +12388,10 @@
         <v>5</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>11</v>
@@ -12343,10 +12402,10 @@
         <v>5</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>11</v>
@@ -12357,10 +12416,10 @@
         <v>5</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>11</v>
@@ -12371,10 +12430,10 @@
         <v>5</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>11</v>
@@ -12385,10 +12444,10 @@
         <v>5</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>11</v>
@@ -12399,10 +12458,10 @@
         <v>5</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C403" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>11</v>
@@ -12413,10 +12472,10 @@
         <v>5</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>11</v>
@@ -12427,10 +12486,10 @@
         <v>5</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>11</v>
@@ -12441,10 +12500,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>11</v>
@@ -12455,10 +12514,10 @@
         <v>5</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>820</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>11</v>
@@ -12469,10 +12528,10 @@
         <v>5</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>11</v>
@@ -12483,10 +12542,10 @@
         <v>5</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>11</v>
@@ -12497,10 +12556,10 @@
         <v>5</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>11</v>
@@ -12511,10 +12570,10 @@
         <v>5</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>11</v>
@@ -12525,10 +12584,10 @@
         <v>5</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>11</v>
@@ -12539,10 +12598,10 @@
         <v>5</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>11</v>
@@ -12553,10 +12612,10 @@
         <v>5</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>11</v>
@@ -12567,10 +12626,10 @@
         <v>5</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>11</v>
@@ -12581,10 +12640,10 @@
         <v>5</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>11</v>
@@ -12595,10 +12654,10 @@
         <v>5</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>11</v>
@@ -12609,10 +12668,10 @@
         <v>5</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>11</v>
@@ -12623,10 +12682,10 @@
         <v>5</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>11</v>
@@ -12637,10 +12696,10 @@
         <v>5</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>11</v>
@@ -12651,10 +12710,10 @@
         <v>5</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>11</v>
@@ -12665,10 +12724,10 @@
         <v>5</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>11</v>
@@ -12679,10 +12738,10 @@
         <v>5</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>11</v>
@@ -12693,10 +12752,10 @@
         <v>5</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>11</v>
@@ -12707,10 +12766,10 @@
         <v>5</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>11</v>
@@ -12721,10 +12780,10 @@
         <v>5</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>11</v>
@@ -12735,24 +12794,24 @@
         <v>5</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="153" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A428" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>11</v>
@@ -12763,10 +12822,10 @@
         <v>5</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>11</v>
@@ -12777,10 +12836,10 @@
         <v>5</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>11</v>
@@ -12791,10 +12850,10 @@
         <v>5</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>11</v>
@@ -12805,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>11</v>
@@ -12819,10 +12878,10 @@
         <v>5</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>11</v>
@@ -12833,10 +12892,10 @@
         <v>5</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>11</v>
@@ -12847,10 +12906,10 @@
         <v>5</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>11</v>
@@ -12861,10 +12920,10 @@
         <v>5</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>11</v>
@@ -12872,13 +12931,13 @@
     </row>
     <row r="437" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A437" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>11</v>
@@ -12886,13 +12945,13 @@
     </row>
     <row r="438" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A438" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>11</v>
@@ -12900,13 +12959,13 @@
     </row>
     <row r="439" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>11</v>
@@ -12914,13 +12973,13 @@
     </row>
     <row r="440" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A440" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>11</v>
@@ -12928,13 +12987,13 @@
     </row>
     <row r="441" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>11</v>
@@ -12942,13 +13001,13 @@
     </row>
     <row r="442" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A442" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>11</v>
@@ -12956,13 +13015,13 @@
     </row>
     <row r="443" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A443" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>11</v>
@@ -12970,13 +13029,13 @@
     </row>
     <row r="444" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A444" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>11</v>
@@ -12984,13 +13043,13 @@
     </row>
     <row r="445" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>11</v>
@@ -12998,13 +13057,13 @@
     </row>
     <row r="446" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A446" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>11</v>
@@ -13012,13 +13071,13 @@
     </row>
     <row r="447" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>11</v>
@@ -13026,13 +13085,13 @@
     </row>
     <row r="448" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A448" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>894</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>11</v>
@@ -13040,13 +13099,13 @@
     </row>
     <row r="449" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A449" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>11</v>
@@ -13054,13 +13113,13 @@
     </row>
     <row r="450" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A450" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>11</v>
@@ -13068,13 +13127,13 @@
     </row>
     <row r="451" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A451" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>11</v>
@@ -13082,13 +13141,13 @@
     </row>
     <row r="452" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A452" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>11</v>
@@ -13096,13 +13155,13 @@
     </row>
     <row r="453" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A453" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>11</v>
@@ -13110,13 +13169,13 @@
     </row>
     <row r="454" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A454" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>11</v>
@@ -13124,13 +13183,13 @@
     </row>
     <row r="455" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A455" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>11</v>
@@ -13138,13 +13197,13 @@
     </row>
     <row r="456" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A456" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>11</v>
@@ -13152,13 +13211,13 @@
     </row>
     <row r="457" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A457" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>11</v>
@@ -13166,13 +13225,13 @@
     </row>
     <row r="458" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A458" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B458" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>11</v>
@@ -13180,13 +13239,13 @@
     </row>
     <row r="459" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A459" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>11</v>
@@ -13194,13 +13253,13 @@
     </row>
     <row r="460" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A460" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>11</v>
@@ -13208,16 +13267,136 @@
     </row>
     <row r="461" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A461" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B461" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C461" s="3" t="s">
-        <v>909</v>
-      </c>
       <c r="D461" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A462" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A463" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A464" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="A465" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A466" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A467" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A468" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A469" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B470" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B471" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B472" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B473" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
